--- a/Resultados/tasas precariedad.xlsx
+++ b/Resultados/tasas precariedad.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">DE</t>
   </si>
   <si>
-    <t xml:space="preserve">UK</t>
+    <t xml:space="preserve">GB</t>
   </si>
   <si>
     <t xml:space="preserve">FR</t>
